--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1677,28 +1677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.1426359207049</v>
+        <v>166.6440969071673</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.0668959545132</v>
+        <v>228.0098052069733</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.0724413231224</v>
+        <v>206.248869411857</v>
       </c>
       <c r="AD2" t="n">
-        <v>130142.6359207049</v>
+        <v>166644.0969071673</v>
       </c>
       <c r="AE2" t="n">
-        <v>178066.8959545132</v>
+        <v>228009.8052069733</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.274259267816558e-06</v>
+        <v>6.058236893782186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.641203703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>161072.4413231224</v>
+        <v>206248.869411857</v>
       </c>
     </row>
     <row r="3">
@@ -1783,28 +1783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.29342072984682</v>
+        <v>112.6846219572028</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.806953473338</v>
+        <v>154.1800710564432</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.2773073874983</v>
+        <v>139.4653414679472</v>
       </c>
       <c r="AD3" t="n">
-        <v>88293.42072984681</v>
+        <v>112684.6219572028</v>
       </c>
       <c r="AE3" t="n">
-        <v>120806.953473338</v>
+        <v>154180.0710564432</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.284713166489917e-06</v>
+        <v>7.927841157738707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.547453703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>109277.3073874983</v>
+        <v>139465.3414679472</v>
       </c>
     </row>
     <row r="4">
@@ -1889,28 +1889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.52803423644426</v>
+        <v>112.9192354638003</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.1279620234819</v>
+        <v>154.501079606587</v>
       </c>
       <c r="AC4" t="n">
-        <v>109.5676793321549</v>
+        <v>139.7557134126038</v>
       </c>
       <c r="AD4" t="n">
-        <v>88528.03423644426</v>
+        <v>112919.2354638003</v>
       </c>
       <c r="AE4" t="n">
-        <v>121127.9620234819</v>
+        <v>154501.079606587</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.283242651460663e-06</v>
+        <v>7.925120319932533e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.547453703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>109567.6793321549</v>
+        <v>139755.7134126038</v>
       </c>
     </row>
   </sheetData>
@@ -2186,28 +2186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.0205790781768</v>
+        <v>130.4627519975903</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.4302777094274</v>
+        <v>178.5048928934323</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.4551775210649</v>
+        <v>161.4686364489238</v>
       </c>
       <c r="AD2" t="n">
-        <v>107020.5790781768</v>
+        <v>130462.7519975904</v>
       </c>
       <c r="AE2" t="n">
-        <v>146430.2777094274</v>
+        <v>178504.8928934323</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.899774647926106e-06</v>
+        <v>7.433572340522673e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.030671296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>132455.1775210649</v>
+        <v>161468.6364489238</v>
       </c>
     </row>
     <row r="3">
@@ -2292,28 +2292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.17866550716862</v>
+        <v>107.7060897726028</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.1769638474839</v>
+        <v>147.368223684138</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.1846360697938</v>
+        <v>133.3036072483649</v>
       </c>
       <c r="AD3" t="n">
-        <v>84178.66550716861</v>
+        <v>107706.0897726027</v>
       </c>
       <c r="AE3" t="n">
-        <v>115176.9638474839</v>
+        <v>147368.223684138</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.394499473002938e-06</v>
+        <v>8.376594209188031e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.576388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>104184.6360697938</v>
+        <v>133303.6072483649</v>
       </c>
     </row>
   </sheetData>
@@ -2589,28 +2589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.42389184460248</v>
+        <v>108.2655254809634</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.6172256916403</v>
+        <v>148.1336683008782</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.201125555492</v>
+        <v>133.9959989051919</v>
       </c>
       <c r="AD2" t="n">
-        <v>87423.89184460248</v>
+        <v>108265.5254809634</v>
       </c>
       <c r="AE2" t="n">
-        <v>119617.2256916403</v>
+        <v>148133.6683008782</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.318964762434929e-06</v>
+        <v>9.198264658235064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>108201.125555492</v>
+        <v>133995.9989051919</v>
       </c>
     </row>
   </sheetData>
@@ -2886,28 +2886,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.54658503206099</v>
+        <v>100.4901771244614</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.4709028715911</v>
+        <v>137.4950936553575</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.21403073791325</v>
+        <v>124.372754892503</v>
       </c>
       <c r="AD2" t="n">
-        <v>78546.58503206099</v>
+        <v>100490.1771244614</v>
       </c>
       <c r="AE2" t="n">
-        <v>107470.9028715911</v>
+        <v>137495.0936553575</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.442390040974963e-06</v>
+        <v>9.019587658072423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.778935185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>97214.03073791324</v>
+        <v>124372.754892503</v>
       </c>
     </row>
   </sheetData>
@@ -3183,28 +3183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.56266945976301</v>
+        <v>106.5703947077291</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.4388632302534</v>
+        <v>145.8143155930486</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.1352243535774</v>
+        <v>131.8980019645648</v>
       </c>
       <c r="AD2" t="n">
-        <v>86562.66945976301</v>
+        <v>106570.3947077291</v>
       </c>
       <c r="AE2" t="n">
-        <v>118438.8632302534</v>
+        <v>145814.3155930486</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.112930461063537e-06</v>
+        <v>9.158692782590071e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.429976851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>107135.2243535774</v>
+        <v>131898.0019645648</v>
       </c>
     </row>
   </sheetData>
@@ -3480,28 +3480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.9845432505596</v>
+        <v>135.6537525597223</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.2221924847215</v>
+        <v>185.6074488733198</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.5988814827194</v>
+        <v>167.8933344545929</v>
       </c>
       <c r="AD2" t="n">
-        <v>111984.5432505596</v>
+        <v>135653.7525597223</v>
       </c>
       <c r="AE2" t="n">
-        <v>153222.1924847215</v>
+        <v>185607.4488733198</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.744622853695798e-06</v>
+        <v>7.080196844462751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.16087962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>138598.8814827194</v>
+        <v>167893.3344545929</v>
       </c>
     </row>
     <row r="3">
@@ -3586,28 +3586,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.08437325133887</v>
+        <v>108.8388339065222</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.4161931400626</v>
+        <v>148.9180941813101</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.3055950579585</v>
+        <v>134.7055602805443</v>
       </c>
       <c r="AD3" t="n">
-        <v>85084.37325133887</v>
+        <v>108838.8339065222</v>
       </c>
       <c r="AE3" t="n">
-        <v>116416.1931400626</v>
+        <v>148918.0941813101</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.373707001887457e-06</v>
+        <v>8.269646296370079e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.561921296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>105305.5950579585</v>
+        <v>134705.5602805443</v>
       </c>
     </row>
   </sheetData>
@@ -3883,28 +3883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.54184640700701</v>
+        <v>116.8552725068313</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.7786163277101</v>
+        <v>159.8865391345584</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.3471132957686</v>
+        <v>144.6271922417672</v>
       </c>
       <c r="AD2" t="n">
-        <v>87541.84640700702</v>
+        <v>116855.2725068313</v>
       </c>
       <c r="AE2" t="n">
-        <v>119778.6163277101</v>
+        <v>159886.5391345584</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.887695611465842e-06</v>
+        <v>8.91280168590872e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.794560185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>108347.1132957686</v>
+        <v>144627.1922417672</v>
       </c>
     </row>
   </sheetData>
@@ -4180,28 +4180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.46517350117765</v>
+        <v>105.2557548344913</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.8324884909561</v>
+        <v>144.0155673206675</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.0639141508005</v>
+        <v>130.2709237027402</v>
       </c>
       <c r="AD2" t="n">
-        <v>82465.17350117765</v>
+        <v>105255.7548344913</v>
       </c>
       <c r="AE2" t="n">
-        <v>112832.4884909561</v>
+        <v>144015.5673206676</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.369619217608471e-06</v>
+        <v>8.56439327866262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.706597222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>102063.9141508005</v>
+        <v>130270.9237027402</v>
       </c>
     </row>
     <row r="3">
@@ -4286,28 +4286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.12292992149132</v>
+        <v>103.913511254805</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.9959716096226</v>
+        <v>142.1790504393341</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.4026718630533</v>
+        <v>128.609681414993</v>
       </c>
       <c r="AD3" t="n">
-        <v>81122.92992149132</v>
+        <v>103913.511254805</v>
       </c>
       <c r="AE3" t="n">
-        <v>110995.9716096226</v>
+        <v>142179.0504393341</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.454031425598961e-06</v>
+        <v>8.72984003975282e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.637152777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>100402.6718630533</v>
+        <v>128609.681414993</v>
       </c>
     </row>
   </sheetData>
@@ -4583,28 +4583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.05160857345996</v>
+        <v>113.3433631054688</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.2125836467417</v>
+        <v>155.0813897571086</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.4533475934762</v>
+        <v>140.2806395768302</v>
       </c>
       <c r="AD2" t="n">
-        <v>90051.60857345996</v>
+        <v>113343.3631054688</v>
       </c>
       <c r="AE2" t="n">
-        <v>123212.5836467417</v>
+        <v>155081.3897571086</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.082211947769127e-06</v>
+        <v>7.848881490241682e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>111453.3475934762</v>
+        <v>140280.6395768302</v>
       </c>
     </row>
     <row r="3">
@@ -4689,28 +4689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.15314428523197</v>
+        <v>106.4448988172408</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.7738004688276</v>
+        <v>145.6426065791946</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.9153886346439</v>
+        <v>131.7426806179979</v>
       </c>
       <c r="AD3" t="n">
-        <v>83153.14428523197</v>
+        <v>106444.8988172408</v>
       </c>
       <c r="AE3" t="n">
-        <v>113773.8004688276</v>
+        <v>145642.6065791946</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.415618276187239e-06</v>
+        <v>8.489922865195385e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>102915.3886346439</v>
+        <v>131742.6806179979</v>
       </c>
     </row>
   </sheetData>
@@ -4986,28 +4986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.0206139868737</v>
+        <v>148.1210735195919</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.6904754601035</v>
+        <v>202.6657874299871</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.4954546443165</v>
+        <v>183.3236491209459</v>
       </c>
       <c r="AD2" t="n">
-        <v>124020.6139868737</v>
+        <v>148121.0735195919</v>
       </c>
       <c r="AE2" t="n">
-        <v>169690.4754601035</v>
+        <v>202665.7874299871</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.415362706465491e-06</v>
+        <v>6.362561679096456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.484953703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>153495.4546443165</v>
+        <v>183323.6491209459</v>
       </c>
     </row>
     <row r="3">
@@ -5092,28 +5092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.42455225620776</v>
+        <v>111.6102631349465</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.618129295934</v>
+        <v>152.7100859184667</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.2019429210601</v>
+        <v>138.1356496484017</v>
       </c>
       <c r="AD3" t="n">
-        <v>87424.55225620777</v>
+        <v>111610.2631349465</v>
       </c>
       <c r="AE3" t="n">
-        <v>119618.129295934</v>
+        <v>152710.0859184667</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.316688973442388e-06</v>
+        <v>8.041664152099993e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.547453703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>108201.9429210601</v>
+        <v>138135.6496484017</v>
       </c>
     </row>
     <row r="4">
@@ -5198,28 +5198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.63038376605108</v>
+        <v>111.8160946447898</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.8997570483468</v>
+        <v>152.9917136708795</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.4566925160497</v>
+        <v>138.3903992433914</v>
       </c>
       <c r="AD4" t="n">
-        <v>87630.38376605108</v>
+        <v>111816.0946447898</v>
       </c>
       <c r="AE4" t="n">
-        <v>119899.7570483468</v>
+        <v>152991.7136708795</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.316212529391948e-06</v>
+        <v>8.040776572970601e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.547453703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>108456.6925160497</v>
+        <v>138390.3992433914</v>
       </c>
     </row>
   </sheetData>
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.21298150526755</v>
+        <v>101.4539484834853</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.3826959255693</v>
+        <v>138.8137681473649</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.03880354252969</v>
+        <v>125.5655769417649</v>
       </c>
       <c r="AD2" t="n">
-        <v>79212.98150526755</v>
+        <v>101453.9484834853</v>
       </c>
       <c r="AE2" t="n">
-        <v>108382.6959255693</v>
+        <v>138813.7681473649</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.46324861431975e-06</v>
+        <v>8.946570041952281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.71238425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>98038.8035425297</v>
+        <v>125565.5769417649</v>
       </c>
     </row>
   </sheetData>
@@ -5792,28 +5792,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.18309991529526</v>
+        <v>98.47359792903906</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.6053223821151</v>
+        <v>134.7359210349867</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.52649863199365</v>
+        <v>121.8769138344965</v>
       </c>
       <c r="AD2" t="n">
-        <v>77183.09991529526</v>
+        <v>98473.59792903905</v>
       </c>
       <c r="AE2" t="n">
-        <v>105605.3223821151</v>
+        <v>134735.9210349867</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.388283794890945e-06</v>
+        <v>9.180564133039316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.932291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>95526.49863199364</v>
+        <v>121876.9138344965</v>
       </c>
     </row>
   </sheetData>
@@ -9390,28 +9390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.67084142401667</v>
+        <v>107.1163604837838</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.5868688839554</v>
+        <v>146.5613300541563</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.2691045554174</v>
+        <v>132.573722413946</v>
       </c>
       <c r="AD2" t="n">
-        <v>86670.84142401667</v>
+        <v>107116.3604837838</v>
       </c>
       <c r="AE2" t="n">
-        <v>118586.8688839554</v>
+        <v>146561.3300541563</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.248192654117915e-06</v>
+        <v>9.234958112617602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.204282407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>107269.1045554174</v>
+        <v>132573.722413946</v>
       </c>
     </row>
   </sheetData>
@@ -9687,28 +9687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.5427530729939</v>
+        <v>127.909292895523</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.1987862707411</v>
+        <v>175.0111374993205</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.2001652652951</v>
+        <v>158.3083201661083</v>
       </c>
       <c r="AD2" t="n">
-        <v>99542.7530729939</v>
+        <v>127909.292895523</v>
       </c>
       <c r="AE2" t="n">
-        <v>136198.7862707411</v>
+        <v>175011.1374993205</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.529624893715612e-06</v>
+        <v>8.39530798082482e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.43113425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>123200.1652652951</v>
+        <v>158308.3201661083</v>
       </c>
     </row>
   </sheetData>
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.79089327775674</v>
+        <v>108.8374058800636</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.3828850096708</v>
+        <v>148.9161402925093</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.1800272122922</v>
+        <v>134.7037928681483</v>
       </c>
       <c r="AD2" t="n">
-        <v>85790.89327775674</v>
+        <v>108837.4058800636</v>
       </c>
       <c r="AE2" t="n">
-        <v>117382.8850096708</v>
+        <v>148916.1402925093</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.244939781508231e-06</v>
+        <v>8.237637579033568e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.776041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>106180.0272122922</v>
+        <v>134703.7928681483</v>
       </c>
     </row>
     <row r="3">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.63992560881036</v>
+        <v>105.6864382111172</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.0715920341379</v>
+        <v>144.6048473169763</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.280197987405</v>
+        <v>130.8039636432611</v>
       </c>
       <c r="AD3" t="n">
-        <v>82639.92560881036</v>
+        <v>105686.4382111172</v>
       </c>
       <c r="AE3" t="n">
-        <v>113071.5920341379</v>
+        <v>144604.8473169763</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.411839205538144e-06</v>
+        <v>8.561518962062134e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.63425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>102280.197987405</v>
+        <v>130803.9636432611</v>
       </c>
     </row>
   </sheetData>
@@ -10387,28 +10387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.1065279881019</v>
+        <v>141.9949380503299</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.5985620855279</v>
+        <v>194.2837386149246</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.1758221251361</v>
+        <v>175.7415712805109</v>
       </c>
       <c r="AD2" t="n">
-        <v>118106.5279881019</v>
+        <v>141994.9380503299</v>
       </c>
       <c r="AE2" t="n">
-        <v>161598.5620855279</v>
+        <v>194283.7386149246</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.566755262445524e-06</v>
+        <v>6.692631858068951e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.331597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>146175.822125136</v>
+        <v>175741.5712805109</v>
       </c>
     </row>
     <row r="3">
@@ -10493,28 +10493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.43114595024547</v>
+        <v>110.4048073584941</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.2589069621239</v>
+        <v>151.0607281441698</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.9724428591079</v>
+        <v>136.6437042651949</v>
       </c>
       <c r="AD3" t="n">
-        <v>86431.14595024547</v>
+        <v>110404.8073584941</v>
       </c>
       <c r="AE3" t="n">
-        <v>118258.9069621239</v>
+        <v>151060.7281441698</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.335780151192196e-06</v>
+        <v>8.13562418340866e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.561921296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>106972.4428591079</v>
+        <v>136643.7042651949</v>
       </c>
     </row>
   </sheetData>
@@ -10790,28 +10790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.7094644528842</v>
+        <v>151.2648954512457</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.9505498887794</v>
+        <v>206.9673032925086</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.9714096889176</v>
+        <v>187.2146343467652</v>
       </c>
       <c r="AD2" t="n">
-        <v>114709.4644528842</v>
+        <v>151264.8954512457</v>
       </c>
       <c r="AE2" t="n">
-        <v>156950.5498887794</v>
+        <v>206967.3032925086</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.919736208871627e-06</v>
+        <v>7.302038680974459e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>141971.4096889177</v>
+        <v>187214.6343467652</v>
       </c>
     </row>
   </sheetData>
@@ -11087,28 +11087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.88021118320694</v>
+        <v>99.50810513189249</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.55914077325</v>
+        <v>136.1513794291668</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.38928593457143</v>
+        <v>123.1572828661448</v>
       </c>
       <c r="AD2" t="n">
-        <v>77880.21118320693</v>
+        <v>99508.10513189249</v>
       </c>
       <c r="AE2" t="n">
-        <v>106559.14077325</v>
+        <v>136151.3794291668</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.423378567503268e-06</v>
+        <v>9.108990313058334e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.845486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>96389.28593457144</v>
+        <v>123157.2828661448</v>
       </c>
     </row>
   </sheetData>
@@ -11384,28 +11384,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.44995733145412</v>
+        <v>102.9725719890009</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.0751808224789</v>
+        <v>140.8916158245509</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.56976005629626</v>
+        <v>127.4451177529185</v>
       </c>
       <c r="AD2" t="n">
-        <v>80449.95733145412</v>
+        <v>102972.5719890009</v>
       </c>
       <c r="AE2" t="n">
-        <v>110075.1808224789</v>
+        <v>140891.6158245509</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.435357916617553e-06</v>
+        <v>8.787260634472879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.69212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>99569.76005629626</v>
+        <v>127445.1177529185</v>
       </c>
     </row>
     <row r="3">
@@ -11490,28 +11490,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.36229064547514</v>
+        <v>102.8849053030219</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.9552313951413</v>
+        <v>140.7716663972133</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.46125843395363</v>
+        <v>127.3366161305759</v>
       </c>
       <c r="AD3" t="n">
-        <v>80362.29064547514</v>
+        <v>102884.9053030219</v>
       </c>
       <c r="AE3" t="n">
-        <v>109955.2313951413</v>
+        <v>140771.6663972133</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.452790764241027e-06</v>
+        <v>8.821798315207635e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.677662037037038</v>
       </c>
       <c r="AH3" t="n">
-        <v>99461.25843395363</v>
+        <v>127336.6161305759</v>
       </c>
     </row>
   </sheetData>
